--- a/data_year/zb/价格指数/各种价格定基指数.xlsx
+++ b/data_year/zb/价格指数/各种价格定基指数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,587 +473,355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314</v>
+        <v>403.5</v>
       </c>
       <c r="C2" t="n">
-        <v>354.4</v>
+        <v>406.3</v>
       </c>
       <c r="D2" t="n">
-        <v>198.626638677426</v>
+        <v>254.6</v>
       </c>
       <c r="E2" t="n">
-        <v>476.6</v>
+        <v>576.3</v>
       </c>
       <c r="F2" t="n">
-        <v>434</v>
+        <v>536.1</v>
       </c>
       <c r="G2" t="n">
-        <v>303.1</v>
+        <v>377.5</v>
       </c>
       <c r="H2" t="n">
-        <v>228.4</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5</v>
+        <v>426.9</v>
       </c>
       <c r="C3" t="n">
-        <v>351.6</v>
+        <v>426.2</v>
       </c>
       <c r="D3" t="n">
-        <v>199.421145232136</v>
+        <v>271.4</v>
       </c>
       <c r="E3" t="n">
-        <v>479.9</v>
+        <v>606.8</v>
       </c>
       <c r="F3" t="n">
-        <v>437</v>
+        <v>565</v>
       </c>
       <c r="G3" t="n">
-        <v>299.2</v>
+        <v>400.2</v>
       </c>
       <c r="H3" t="n">
-        <v>227.9</v>
+        <v>379.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.2</v>
+        <v>437.6</v>
       </c>
       <c r="C4" t="n">
-        <v>347</v>
+        <v>434.7</v>
       </c>
       <c r="D4" t="n">
-        <v>199.8199875226</v>
+        <v>274.4</v>
       </c>
       <c r="E4" t="n">
-        <v>475.1</v>
+        <v>623.2</v>
       </c>
       <c r="F4" t="n">
-        <v>433.5</v>
+        <v>579.7</v>
       </c>
       <c r="G4" t="n">
-        <v>292.6</v>
+        <v>393.4</v>
       </c>
       <c r="H4" t="n">
-        <v>222.7</v>
+        <v>372.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.2</v>
+        <v>449.9</v>
       </c>
       <c r="C5" t="n">
-        <v>346.7</v>
+        <v>440.8</v>
       </c>
       <c r="D5" t="n">
-        <v>204.216027248097</v>
+        <v>275.2</v>
       </c>
       <c r="E5" t="n">
-        <v>479.4</v>
+        <v>639.4</v>
       </c>
       <c r="F5" t="n">
-        <v>438.7</v>
+        <v>594.8</v>
       </c>
       <c r="G5" t="n">
-        <v>299.3</v>
+        <v>385.9</v>
       </c>
       <c r="H5" t="n">
-        <v>233.4</v>
+        <v>365.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335.6</v>
+        <v>458</v>
       </c>
       <c r="C6" t="n">
-        <v>356.4</v>
+        <v>445.2</v>
       </c>
       <c r="D6" t="n">
-        <v>215.652124773991</v>
+        <v>276.6</v>
       </c>
       <c r="E6" t="n">
-        <v>495.2</v>
+        <v>652.8</v>
       </c>
       <c r="F6" t="n">
-        <v>455.8</v>
+        <v>606.7</v>
       </c>
       <c r="G6" t="n">
-        <v>317.6</v>
+        <v>378.6</v>
       </c>
       <c r="H6" t="n">
-        <v>260</v>
+        <v>357.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343</v>
+        <v>464</v>
       </c>
       <c r="C7" t="n">
-        <v>359.3</v>
+        <v>445.6</v>
       </c>
       <c r="D7" t="n">
-        <v>219.1</v>
+        <v>271.6</v>
       </c>
       <c r="E7" t="n">
-        <v>503.1</v>
+        <v>662.6</v>
       </c>
       <c r="F7" t="n">
-        <v>464</v>
+        <v>615.2</v>
       </c>
       <c r="G7" t="n">
-        <v>333.2</v>
+        <v>358.9</v>
       </c>
       <c r="H7" t="n">
-        <v>281.6</v>
+        <v>335.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.1</v>
+        <v>472.8</v>
       </c>
       <c r="C8" t="n">
-        <v>362.9</v>
+        <v>448.7</v>
       </c>
       <c r="D8" t="n">
-        <v>222.4</v>
+        <v>270</v>
       </c>
       <c r="E8" t="n">
-        <v>510.6</v>
+        <v>676.5</v>
       </c>
       <c r="F8" t="n">
-        <v>471</v>
+        <v>627.5</v>
       </c>
       <c r="G8" t="n">
-        <v>343.2</v>
+        <v>353.9</v>
       </c>
       <c r="H8" t="n">
-        <v>298.5</v>
+        <v>328.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>366.9</v>
+        <v>478.9</v>
       </c>
       <c r="C9" t="n">
-        <v>376.7</v>
+        <v>453.6</v>
       </c>
       <c r="D9" t="n">
-        <v>231.09584</v>
+        <v>285.7</v>
       </c>
       <c r="E9" t="n">
-        <v>533.6</v>
+        <v>688</v>
       </c>
       <c r="F9" t="n">
-        <v>493.6</v>
+        <v>637.5</v>
       </c>
       <c r="G9" t="n">
-        <v>353.8</v>
+        <v>376.2</v>
       </c>
       <c r="H9" t="n">
-        <v>311.6</v>
+        <v>355.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.7</v>
+        <v>489</v>
       </c>
       <c r="C10" t="n">
-        <v>398.9</v>
+        <v>462.2</v>
       </c>
       <c r="D10" t="n">
-        <v>251.8</v>
+        <v>301.1</v>
       </c>
       <c r="E10" t="n">
-        <v>563.5</v>
+        <v>702.4</v>
       </c>
       <c r="F10" t="n">
-        <v>522.7</v>
+        <v>650.9</v>
       </c>
       <c r="G10" t="n">
-        <v>378.2</v>
+        <v>389.4</v>
       </c>
       <c r="H10" t="n">
-        <v>344.3</v>
+        <v>369.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>389.5</v>
+        <v>504.6</v>
       </c>
       <c r="C11" t="n">
-        <v>394.1</v>
+        <v>471.4</v>
       </c>
       <c r="D11" t="n">
-        <v>245.8</v>
+        <v>308.9</v>
       </c>
       <c r="E11" t="n">
-        <v>558.4</v>
+        <v>722.1</v>
       </c>
       <c r="F11" t="n">
-        <v>519</v>
+        <v>669.8</v>
       </c>
       <c r="G11" t="n">
-        <v>357.8</v>
+        <v>388.2</v>
       </c>
       <c r="H11" t="n">
-        <v>317.2</v>
+        <v>367.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>403.5</v>
+        <v>519.7</v>
       </c>
       <c r="C12" t="n">
-        <v>406.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>254.6</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>576.3</v>
+        <v>738.7</v>
       </c>
       <c r="F12" t="n">
-        <v>536.1</v>
+        <v>686.5</v>
       </c>
       <c r="G12" t="n">
-        <v>377.5</v>
+        <v>381.2</v>
       </c>
       <c r="H12" t="n">
-        <v>347.7</v>
+        <v>358.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>426.9</v>
+        <v>523.3</v>
       </c>
       <c r="C13" t="n">
-        <v>426.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>271.4</v>
-      </c>
+        <v>485.6</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>606.8</v>
+        <v>746.1</v>
       </c>
       <c r="F13" t="n">
-        <v>565</v>
+        <v>692.7</v>
       </c>
       <c r="G13" t="n">
-        <v>400.2</v>
+        <v>412.1</v>
       </c>
       <c r="H13" t="n">
-        <v>379.3</v>
+        <v>398.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>437.6</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>434.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>623.2</v>
-      </c>
+        <v>498.7</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>579.7</v>
+        <v>706.6</v>
       </c>
       <c r="G14" t="n">
-        <v>393.4</v>
+        <v>429</v>
       </c>
       <c r="H14" t="n">
-        <v>372.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>449.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>440.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>275.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>639.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>594.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>385.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>365.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>458</v>
-      </c>
-      <c r="C16" t="n">
-        <v>445.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>276.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>652.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>606.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>378.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>357.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>464</v>
-      </c>
-      <c r="C17" t="n">
-        <v>445.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>662.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>615.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>358.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>335.3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>472.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>448.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>270</v>
-      </c>
-      <c r="E18" t="n">
-        <v>676.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>627.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>353.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>328.6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>453.6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>688</v>
-      </c>
-      <c r="F19" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>376.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>355.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>489</v>
-      </c>
-      <c r="C20" t="n">
-        <v>462.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>301.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>702.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>650.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>389.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>369.8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>504.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>471.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>308.9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>722.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>669.8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>388.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>367.2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>519.7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>478</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>738.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>686.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>381.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>358.8</v>
+        <v>422.6</v>
       </c>
     </row>
   </sheetData>
